--- a/examples/excel_templates/membership-card.xlsx
+++ b/examples/excel_templates/membership-card.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">organisation</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a</t>
   </si>
   <si>
     <t xml:space="preserve">natural</t>
@@ -259,20 +262,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,60 +303,60 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -357,26 +364,26 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>44927</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
